--- a/data/long_dif/P23_9-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_9-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>27,98%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,75%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 32,84</t>
+          <t>16,42; 38,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 34,84</t>
+          <t>18,93; 38,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 29,2</t>
+          <t>8,44; 29,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 35,58</t>
+          <t>12,1; 40,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 28,34</t>
+          <t>13,54; 28,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 32,7</t>
+          <t>20,79; 36,22</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 36,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 34,29</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16,85; 30,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>21,52; 34,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,84; 30,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 30,78</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,42%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>57,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50,12%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>52,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45,14%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,77; 63,0</t>
+          <t>36,94; 59,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,95; 72,55</t>
+          <t>50,45; 70,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,91; 62,15</t>
+          <t>43,4; 70,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,53; 67,09</t>
+          <t>25,85; 56,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,92; 58,59</t>
+          <t>42,87; 61,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,88; 67,87</t>
+          <t>49,72; 66,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38,34; 58,8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35,4; 62,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42,51; 57,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52,59; 66,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43,7; 61,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34,04; 55,57</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,31%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,27%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 36,58</t>
+          <t>15,87; 33,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 17,84</t>
+          <t>6,04; 18,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 36,08</t>
+          <t>13,94; 36,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 21,4</t>
+          <t>22,76; 55,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 33,29</t>
+          <t>20,43; 36,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 17,69</t>
+          <t>9,21; 21,59</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 36,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,42; 43,73</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 31,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 17,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,6; 33,2</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 44,63</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 25,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,25; 48,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,06; 35,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 32,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,89; 28,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,38; 39,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>34,14%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21,25%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,94; 62,54</t>
+          <t>11,05; 26,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,6; 52,62</t>
+          <t>25,86; 50,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,56; 53,38</t>
+          <t>22,63; 52,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,78; 54,15</t>
+          <t>6,49; 30,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,62; 54,91</t>
+          <t>19,13; 35,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,79; 50,87</t>
+          <t>19,72; 32,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 41,26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 37,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,4; 27,59</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24,81; 40,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,43; 44,16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 29,07</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>49,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>59,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>46,81%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44,41%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52,61%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,15; 43,59</t>
+          <t>37,52; 62,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 30,1</t>
+          <t>31,45; 51,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,18; 38,68</t>
+          <t>21,39; 48,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,75; 35,11</t>
+          <t>40,29; 78,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,97; 38,12</t>
+          <t>34,4; 52,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,31; 30,53</t>
+          <t>39,15; 53,96</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42,85; 61,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35,65; 56,31</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>39,29; 55,69</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38,03; 50,44</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31,73; 52,24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41,25; 65,89</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>27,73%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26,15%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,19; 47,77</t>
+          <t>22,66; 46,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,53; 39,54</t>
+          <t>14,92; 30,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 28,42</t>
+          <t>12,08; 53,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,32; 33,61</t>
+          <t>11,5; 44,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,07; 36,5</t>
+          <t>23,1; 38,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,93; 34,78</t>
+          <t>21,77; 34,38</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 22,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,61; 37,04</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 39,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 29,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 40,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 36,35</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39,93%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,27; 44,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,69; 47,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,03; 51,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,53; 46,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,52; 45,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,43; 45,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>28,08%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>42,21%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>35,36%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28,92%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>34,94%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,1; 38,05</t>
+          <t>27,36; 46,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20,35; 37,93</t>
+          <t>25,28; 39,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27,15; 39,53</t>
+          <t>20,43; 34,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,52; 37,72</t>
+          <t>13,15; 27,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,65; 35,94</t>
+          <t>17,43; 29,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,35; 35,87</t>
+          <t>23,01; 33,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>35,72; 48,96</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26,48; 44,86</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23,55; 35,62</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 34,1</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>30,47; 40,36</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 33,13</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>52,06%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>40,28%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>43,68%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>39,48%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>40,53%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>48,12%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,5; 36,97</t>
+          <t>26,71; 43,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>29,82; 44,25</t>
+          <t>33,71; 49,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,38; 27,41</t>
+          <t>38,97; 57,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,92; 36,81</t>
+          <t>42,6; 63,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,46; 29,99</t>
+          <t>36,42; 50,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,74; 38,57</t>
+          <t>34,69; 46,53</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>37,95; 51,71</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>34,31; 52,04</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>33,44; 44,66</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35,67; 46,14</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40,23; 51,29</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>41,13; 55,06</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12,9%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>30,17; 44,58</t>
+          <t>22,05; 37,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>32,16; 44,33</t>
+          <t>20,47; 36,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>31,42; 44,01</t>
+          <t>18,55; 33,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>32,34; 43,42</t>
+          <t>19,13; 39,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>32,64; 42,98</t>
+          <t>28,05; 40,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>33,84; 42,53</t>
+          <t>26,16; 37,31</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 18,33</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>14,23; 29,71</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 36,92</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>24,84; 34,5</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 23,33</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 31,91</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>27,64; 41,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20,32; 33,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>34,49; 47,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,24; 36,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>32,67; 42,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,06; 32,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>31,02%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>41,5%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>33,61%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>36,66%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>19,95; 33,96</t>
+          <t>21,64; 37,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>22,53; 35,34</t>
+          <t>30,49; 43,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,82; 28,26</t>
+          <t>24,77; 39,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>22,56; 35,53</t>
+          <t>25,16; 45,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,68; 28,88</t>
+          <t>16,3; 27,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>24,01; 33,15</t>
+          <t>25,95; 36,57</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>35,05; 48,25</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 31,79</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 28,94</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>29,57; 38,46</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>30,9; 41,61</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>23,29; 36,24</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>38,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>38,14%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>37,75%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>54,44%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>38,08%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>38,35%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>40,18%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>46,06%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>28,96; 44,04</t>
+          <t>31,28; 46,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>35,74; 49,75</t>
+          <t>32,48; 45,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>37,19; 54,11</t>
+          <t>33,44; 50,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31,78; 45,94</t>
+          <t>28,93; 49,0</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>34,67; 46,64</t>
+          <t>30,88; 44,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>36,09; 46,09</t>
+          <t>32,74; 44,36</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>30,89; 44,56</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>45,68; 63,42</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>33,03; 42,75</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>34,1; 43,08</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>34,7; 45,92</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>39,38; 53,61</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>28,04%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,16%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>29,4; 46,06</t>
+          <t>26,65; 40,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>23,12; 34,76</t>
+          <t>19,59; 31,42</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>26,84; 42,38</t>
+          <t>18,54; 40,99</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>25,95; 39,37</t>
+          <t>17,92; 41,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>29,97; 41,73</t>
+          <t>34,88; 48,32</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>25,99; 35,52</t>
+          <t>25,55; 36,35</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 26,43</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>14,6; 29,88</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>33,07; 42,47</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>23,85; 32,08</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 30,9</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 32,17</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>12,9; 28,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>30,3; 49,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>15,61; 30,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>25,94; 42,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>15,53; 26,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>30,16; 42,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>37,07%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>38,96%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>30,02%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>29,49; 57,71</t>
+          <t>18,1; 33,99</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>24,04; 42,58</t>
+          <t>22,39; 35,72</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>35,73; 55,27</t>
+          <t>32,11; 51,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>35,67; 50,97</t>
+          <t>24,05; 44,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>35,34; 51,38</t>
+          <t>14,13; 27,46</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>31,88; 43,66</t>
+          <t>22,94; 35,39</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>29,14; 47,75</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>18,22; 34,95</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>18,52; 28,5</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>24,52; 33,53</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>32,07; 45,22</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>24,17; 37,14</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>42,45%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>39,56%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>37,36%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>43,26%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>40,44%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>40,95%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>42,87%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>27,56; 51,35</t>
+          <t>27,63; 43,37</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>21,77; 37,68</t>
+          <t>35,41; 48,89</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,21; 42,12</t>
+          <t>33,67; 51,64</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>16,53; 30,39</t>
+          <t>32,93; 53,44</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>28,99; 44,04</t>
+          <t>36,33; 53,87</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>21,1; 31,82</t>
+          <t>32,55; 46,79</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>29,51; 45,83</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>33,69; 52,42</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>34,68; 46,34</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>36,19; 46,3</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>33,83; 46,2</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>35,61; 49,72</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>31,64%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>36,37%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>27,11%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>22,3; 29,75</t>
+          <t>29,43; 47,69</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>29,51; 36,52</t>
+          <t>23,27; 36,0</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>19,72; 25,15</t>
+          <t>11,4; 25,42</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>26,59; 32,05</t>
+          <t>14,75; 32,61</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>21,62; 26,32</t>
+          <t>27,53; 43,81</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>28,8; 33,4</t>
+          <t>25,43; 38,8</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 34,08</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 40,31</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>30,47; 43,23</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>25,56; 34,92</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 26,43</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>21,48; 34,45</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>37,1; 45,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>39,18; 46,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>41,14; 47,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>40,94; 46,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>40,43; 45,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>41,23; 45,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>39,11%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>32,88%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>35,77%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>28,68%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>29,18; 36,96</t>
+          <t>13,9; 29,52</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>21,4; 27,69</t>
+          <t>30,5; 48,7</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>30,2; 36,7</t>
+          <t>27,5; 51,33</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>24,45; 29,48</t>
+          <t>21,58; 46,11</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>30,75; 36,01</t>
+          <t>15,72; 29,67</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,64; 27,91</t>
+          <t>25,56; 41,11</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>22,32; 41,87</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>14,49; 39,73</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 27,14</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>29,55; 41,68</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>27,59; 41,78</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 38,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>38,28%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>31,88%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>42,91%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>44,06%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>44,88%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>43,7%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>35,23%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>49,21%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>41,97%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>38,23%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>38,57%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>46,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>28,52; 53,89</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>24,21; 42,2</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>31,88; 54,94</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>32,54; 57,82</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>36,18; 55,65</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>35,83; 51,92</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>26,08; 45,21</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>34,27; 62,82</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>35,5; 49,9</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>32,54; 44,77</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>30,81; 46,47</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>37,15; 57,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>40,74%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>32,62%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>25,92%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>36,2%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>26,98%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>29,65; 51,71</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 37,85</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 30,96</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 33,41</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 41,0</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 31,2</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>24,68; 44,05</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 40,33</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>29,46; 42,86</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>21,09; 31,11</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 34,32</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 34,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>33,25%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>26,18%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>22,17%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>29,14%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>35,46%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>33,72%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 30,51</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>29,49; 37,41</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>27,43; 36,52</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>21,91; 30,65</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 24,95</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>26,4; 31,9</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>32,06; 38,94</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 31,0</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>21,91; 26,48</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 33,83</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>31,0; 36,52</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 29,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>40,72%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>42,75%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>44,56%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>46,57%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>44,16%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>43,94%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>47,57%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>42,46%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>43,35%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>43,53%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>36,89; 44,93</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>38,66; 46,23</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>39,48; 49,01</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>40,97; 52,55</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>40,55; 47,27</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>41,01; 47,17</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>39,2; 46,3</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>43,11; 52,6</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>39,87; 44,96</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>40,99; 45,55</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>40,69; 46,57</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>43,48; 51,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>25,46%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>26,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>29,38; 37,2</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 27,06</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 31,36</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 32,61</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>30,49; 36,87</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 29,28</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>19,05; 25,0</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>21,96; 29,96</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>31,13; 36,17</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>23,38; 27,58</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 26,51</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>23,16; 29,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_9-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_9-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
